--- a/apps/features/backlog/iPhone/devices/connected_device.xlsx
+++ b/apps/features/backlog/iPhone/devices/connected_device.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\apps\features\backlog\iPhone\devices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8396B277-7CAE-414C-A115-1533440BBFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26799FE-B610-4E5D-B157-267D8FEF34F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>check the connected device page while vpn server is not connected</t>
-  </si>
-  <si>
-    <t>should work perfectly</t>
   </si>
   <si>
     <t>should work perfectly and show the proper result</t>
@@ -412,6 +409,9 @@
   </si>
   <si>
     <t xml:space="preserve">should be same </t>
+  </si>
+  <si>
+    <t>should show proper error message work perfectly</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1270,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G32" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G31" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="5"/>
@@ -1489,7 +1489,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1615,13 +1615,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>6</v>
@@ -1657,13 +1657,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="3"/>
@@ -1686,7 +1686,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -1697,13 +1697,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="3"/>
@@ -1726,7 +1726,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1737,13 +1737,13 @@
         <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="3"/>
@@ -1766,7 +1766,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
@@ -1777,13 +1777,13 @@
         <v>28</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="3"/>
@@ -1806,7 +1806,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1817,13 +1817,13 @@
         <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="4"/>
@@ -1846,7 +1846,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1857,13 +1857,13 @@
         <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="4"/>
@@ -1897,7 +1897,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>35</v>
@@ -1937,13 +1937,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="1"/>
@@ -1977,13 +1977,13 @@
         <v>38</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="1"/>
@@ -2017,7 +2017,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>51</v>
@@ -2057,7 +2057,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>53</v>
@@ -2097,13 +2097,13 @@
         <v>54</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="1"/>
@@ -2137,7 +2137,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>44</v>
       </c>
@@ -2177,13 +2177,13 @@
         <v>58</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="1"/>
@@ -2217,13 +2217,13 @@
         <v>59</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="1"/>
@@ -2257,13 +2257,13 @@
         <v>60</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="1"/>
@@ -2294,16 +2294,16 @@
         <v>10</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="F21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="1"/>
@@ -2334,16 +2334,16 @@
         <v>10</v>
       </c>
       <c r="C22" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="1"/>
@@ -2374,16 +2374,16 @@
         <v>10</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="F23" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="1"/>
@@ -2408,22 +2408,22 @@
     </row>
     <row r="24" spans="1:26" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F24" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="1"/>
@@ -2446,7 +2446,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2533,9 +2533,9 @@
     <row r="28" spans="1:26" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="7"/>
       <c r="G28" s="18"/>
       <c r="H28" s="1"/>
@@ -2616,11 +2616,11 @@
     </row>
     <row r="31" spans="1:26" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
-      <c r="B31" s="9"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2643,13 +2643,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="9"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="13"/>
       <c r="D33" s="10"/>
       <c r="E33" s="13"/>
@@ -29467,13 +29467,6 @@
       <c r="Z989" s="1"/>
     </row>
     <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A990" s="10"/>
-      <c r="B990" s="10"/>
-      <c r="C990" s="13"/>
-      <c r="D990" s="10"/>
-      <c r="E990" s="13"/>
-      <c r="F990" s="5"/>
-      <c r="G990" s="5"/>
       <c r="H990" s="1"/>
       <c r="I990" s="1"/>
       <c r="J990" s="1"/>
@@ -29499,7 +29492,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F32" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F31" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
